--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3580.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3580.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9588871979195377</v>
+        <v>3.979584693908691</v>
       </c>
       <c r="B1">
-        <v>1.372658328384023</v>
+        <v>4.402648448944092</v>
       </c>
       <c r="C1">
-        <v>2.599897473109468</v>
+        <v>2.11156964302063</v>
       </c>
       <c r="D1">
-        <v>5.303103679125559</v>
+        <v>1.604492545127869</v>
       </c>
       <c r="E1">
-        <v>1.690163793973442</v>
+        <v>1.427490472793579</v>
       </c>
     </row>
   </sheetData>
